--- a/biology/Botanique/Cascabela_ovata/Cascabela_ovata.xlsx
+++ b/biology/Botanique/Cascabela_ovata/Cascabela_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cascabela ovata est une espèce de plantes dicotylédones de la famille des Apocynaceae, sous-famille des Rauvolfioideae, originaire  du Mexique et d'Amérique centrale.
 C'est un arbuste ou un petit arbre tropical à feuilles persistantes, à fleurs jaunes, pouvant atteindre de 2 à 10 mètres de haut.
@@ -514,10 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (6 novembre 2020)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (6 novembre 2020) :
 Cascabela alliodora (Willd. ex Roem. &amp; Schult.) Lippold
-Cascabela ovata[2]
+Cascabela ovata
 Cascabela plumeriifolia (Benth.) Lippold
 Cerbera alliodora Willd. ex Roem. &amp; Schult.
 Cerbera cuneifolia Kunth
@@ -525,7 +542,7 @@
 Thevetia alliodora (Willd. ex Roem. &amp; Schult.) L.Allorge
 Thevetia cuneifolia (Kunth) A.DC.
 Thevetia ovata (Cav.) A.DC.
-Thevetia ovata Cascabela ovata (Cav.) Lippold (préféré par NCBI)[2]
+Thevetia ovata Cascabela ovata (Cav.) Lippold (préféré par NCBI)
 Thevetia plumeriifolia Benth.
 </t>
         </is>
